--- a/data/trans_camb/P9_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P9_2_R-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 6,9</t>
+          <t>-3,49; 6,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 4,3</t>
+          <t>-4,79; 4,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 17,77</t>
+          <t>5,65; 18,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 3,1</t>
+          <t>-7,64; 2,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 10,56</t>
+          <t>2,62; 11,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,18</t>
+          <t>-5,14; 1,87</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 115,31</t>
+          <t>-29,96; 112,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 68,33</t>
+          <t>-43,09; 77,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 175,77</t>
+          <t>29,85; 181,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 33,58</t>
+          <t>-42,22; 29,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 116,27</t>
+          <t>18,92; 123,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 24,36</t>
+          <t>-37,4; 20,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,55</t>
+          <t>-3,38; 5,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 2,48</t>
+          <t>-4,49; 2,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 13,22</t>
+          <t>4,22; 13,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,75</t>
+          <t>-2,64; 6,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 3,13</t>
+          <t>-6,15; 3,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 13,0</t>
+          <t>3,58; 12,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,1</t>
+          <t>-1,32; 4,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,94</t>
+          <t>-4,16; 1,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 11,85</t>
+          <t>5,53; 11,64</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 77,68</t>
+          <t>-28,95; 68,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 33,65</t>
+          <t>-39,85; 36,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 171,31</t>
+          <t>31,83; 172,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 49,24</t>
+          <t>-14,66; 50,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 22,64</t>
+          <t>-33,49; 22,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,0; 98,37</t>
+          <t>20,19; 91,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 44,94</t>
+          <t>-9,3; 41,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 17,18</t>
+          <t>-28,91; 17,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,17; 104,7</t>
+          <t>39,24; 106,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 11,35</t>
+          <t>2,88; 11,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 6,77</t>
+          <t>-0,89; 5,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 13,37</t>
+          <t>4,95; 12,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 10,45</t>
+          <t>-0,1; 11,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,23</t>
+          <t>-5,83; 4,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 10,42</t>
+          <t>0,55; 10,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 9,86</t>
+          <t>2,68; 9,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,99</t>
+          <t>-2,71; 4,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,63</t>
+          <t>4,08; 10,78</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,09; 338,56</t>
+          <t>41,18; 355,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 226,35</t>
+          <t>-18,97; 189,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>65,84; 409,68</t>
+          <t>68,48; 438,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 109,62</t>
+          <t>-0,75; 121,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 42,03</t>
+          <t>-41,6; 42,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 111,17</t>
+          <t>3,64; 113,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,21; 145,1</t>
+          <t>25,18; 146,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 58,4</t>
+          <t>-25,85; 60,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,6; 158,38</t>
+          <t>39,22; 164,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 14,06</t>
+          <t>7,21; 14,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,36</t>
+          <t>8,83; 17,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,02; 20,59</t>
+          <t>10,21; 20,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,72; 21,04</t>
+          <t>10,79; 20,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,0; 22,36</t>
+          <t>10,01; 21,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 15,62</t>
+          <t>4,25; 14,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,06; 16,04</t>
+          <t>10,33; 16,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,44; 18,27</t>
+          <t>10,63; 18,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 16,38</t>
+          <t>8,98; 16,9</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>122,7; 620,18</t>
+          <t>126,7; 633,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>150,54; 711,31</t>
+          <t>153,77; 726,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>185,06; 837,98</t>
+          <t>180,66; 877,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,04; 187,92</t>
+          <t>60,65; 179,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,12; 189,48</t>
+          <t>54,5; 186,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,26; 135,73</t>
+          <t>23,08; 126,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>90,29; 212,58</t>
+          <t>94,62; 226,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>98,68; 239,62</t>
+          <t>100,99; 241,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>80,88; 215,2</t>
+          <t>85,74; 216,78</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,45</t>
+          <t>-1,28; 9,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,64</t>
+          <t>-4,44; 5,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 4,03</t>
+          <t>-5,09; 3,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,93; 22,55</t>
+          <t>7,42; 22,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 8,59</t>
+          <t>-4,14; 9,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 6,04</t>
+          <t>-5,63; 4,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,37</t>
+          <t>4,84; 14,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,81</t>
+          <t>-3,11; 5,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,53</t>
+          <t>-3,14; 3,5</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 181,08</t>
+          <t>-14,96; 194,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,67; 112,42</t>
+          <t>-46,48; 110,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,29; 91,43</t>
+          <t>-51,49; 79,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>40,69; 266,6</t>
+          <t>49,54; 279,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 107,01</t>
+          <t>-27,3; 112,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,53; 81,59</t>
+          <t>-34,09; 57,34</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,72; 196,48</t>
+          <t>40,6; 197,07</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 82,29</t>
+          <t>-27,06; 67,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 51,47</t>
+          <t>-27,37; 49,05</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 10,14</t>
+          <t>-0,26; 9,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,92; 11,61</t>
+          <t>0,32; 10,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 7,44</t>
+          <t>-1,53; 7,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 6,44</t>
+          <t>-5,6; 7,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 11,39</t>
+          <t>-2,4; 11,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 4,03</t>
+          <t>-6,13; 4,92</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 6,35</t>
+          <t>-1,83; 6,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,66</t>
+          <t>0,62; 9,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,26</t>
+          <t>-2,51; 4,77</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 167,63</t>
+          <t>-3,4; 161,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,51; 196,83</t>
+          <t>1,2; 180,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 133,02</t>
+          <t>-15,38; 125,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 50,45</t>
+          <t>-29,62; 56,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 85,43</t>
+          <t>-13,15; 89,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 31,76</t>
+          <t>-30,98; 39,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 59,15</t>
+          <t>-11,93; 65,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,35; 91,78</t>
+          <t>4,03; 90,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 40,11</t>
+          <t>-16,94; 47,26</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,1</t>
+          <t>-5,07; 1,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,64</t>
+          <t>-3,93; 2,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,48</t>
+          <t>0,24; 7,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 5,24</t>
+          <t>-2,21; 5,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,22; 9,38</t>
+          <t>1,47; 9,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,7</t>
+          <t>-2,44; 10,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,27</t>
+          <t>-2,78; 2,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 5,36</t>
+          <t>-0,06; 5,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,96</t>
+          <t>0,47; 7,65</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 14,89</t>
+          <t>-46,91; 17,09</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 34,83</t>
+          <t>-36,27; 32,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,08; 100,97</t>
+          <t>2,05; 94,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 44,08</t>
+          <t>-14,28; 49,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>7,76; 79,57</t>
+          <t>8,03; 84,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 79,36</t>
+          <t>-14,58; 85,37</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 22,81</t>
+          <t>-22,63; 24,07</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 54,19</t>
+          <t>-0,74; 48,84</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>5,32; 79,98</t>
+          <t>5,69; 73,42</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 3,58</t>
+          <t>-2,88; 3,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -1,32</t>
+          <t>-6,97; -1,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,91</t>
+          <t>-2,57; 3,86</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,53</t>
+          <t>-2,9; 4,42</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,49; -0,01</t>
+          <t>-6,91; 0,44</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,27; 8,34</t>
+          <t>0,03; 7,53</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,0</t>
+          <t>-2,17; 3,02</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-6,41; -1,6</t>
+          <t>-6,12; -1,51</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,89</t>
+          <t>-0,66; 4,64</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 41,77</t>
+          <t>-24,52; 38,19</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-59,36; -16,23</t>
+          <t>-59,2; -15,32</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 45,44</t>
+          <t>-22,02; 44,51</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 30,64</t>
+          <t>-16,09; 31,65</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-40,74; -0,12</t>
+          <t>-38,61; 3,33</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,36; 58,67</t>
+          <t>-1,19; 50,76</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 24,65</t>
+          <t>-15,11; 24,33</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-43,09; -11,63</t>
+          <t>-42,53; -12,21</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 40,29</t>
+          <t>-4,13; 38,53</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,26</t>
+          <t>1,33; 4,28</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,39</t>
+          <t>-0,22; 2,47</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,16</t>
+          <t>3,2; 6,22</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,02</t>
+          <t>3,39; 7,15</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,98</t>
+          <t>1,26; 4,87</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,47</t>
+          <t>2,61; 6,42</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,32</t>
+          <t>3,03; 5,47</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,37</t>
+          <t>1,02; 3,36</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,97</t>
+          <t>3,48; 6,04</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>15,92; 55,59</t>
+          <t>14,68; 57,27</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 31,85</t>
+          <t>-3,23; 32,23</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>34,79; 83,17</t>
+          <t>35,94; 82,1</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>21,89; 51,02</t>
+          <t>22,05; 51,46</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>7,98; 36,11</t>
+          <t>7,85; 35,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>16,78; 47,11</t>
+          <t>17,49; 46,96</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>24,18; 48,43</t>
+          <t>25,82; 50,9</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>7,97; 30,45</t>
+          <t>8,56; 31,12</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>28,3; 54,87</t>
+          <t>29,07; 55,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P9_2_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 6,74</t>
+          <t>-3,19; 7,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 4,36</t>
+          <t>-4,75; 4,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 18,99</t>
+          <t>4,45; 17,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 2,88</t>
+          <t>-7,07; 2,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 11,1</t>
+          <t>2,05; 11,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,87</t>
+          <t>-4,96; 1,96</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 112,21</t>
+          <t>-30,01; 126,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 77,41</t>
+          <t>-43,11; 69,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,85; 181,52</t>
+          <t>23,95; 159,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,22; 29,97</t>
+          <t>-42,28; 27,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,92; 123,74</t>
+          <t>15,43; 119,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 20,83</t>
+          <t>-37,09; 21,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,3</t>
+          <t>-2,64; 5,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,77</t>
+          <t>-4,67; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 13,27</t>
+          <t>3,87; 13,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,87</t>
+          <t>-2,75; 6,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 3,16</t>
+          <t>-5,61; 3,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,43</t>
+          <t>3,96; 12,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,84</t>
+          <t>-1,58; 4,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,95</t>
+          <t>-4,11; 1,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 11,64</t>
+          <t>4,93; 11,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 68,05</t>
+          <t>-25,26; 76,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 36,98</t>
+          <t>-39,94; 36,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,83; 172,52</t>
+          <t>33,12; 175,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 50,01</t>
+          <t>-14,92; 47,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 22,45</t>
+          <t>-30,49; 22,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,19; 91,99</t>
+          <t>19,56; 91,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 41,3</t>
+          <t>-11,0; 43,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,91; 17,39</t>
+          <t>-28,91; 15,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,24; 106,66</t>
+          <t>31,83; 98,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 11,65</t>
+          <t>2,95; 11,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,98</t>
+          <t>-0,47; 6,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 12,72</t>
+          <t>5,26; 13,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 11,16</t>
+          <t>-0,21; 10,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 4,04</t>
+          <t>-6,05; 4,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 10,34</t>
+          <t>0,58; 10,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 9,92</t>
+          <t>2,63; 9,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,06</t>
+          <t>-2,68; 4,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,78</t>
+          <t>4,01; 10,54</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>41,18; 355,04</t>
+          <t>33,77; 341,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 189,49</t>
+          <t>-12,03; 209,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,48; 438,21</t>
+          <t>79,21; 461,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 121,29</t>
+          <t>-3,46; 114,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 42,92</t>
+          <t>-41,48; 49,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,64; 113,62</t>
+          <t>2,47; 108,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,18; 146,9</t>
+          <t>28,04; 152,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 60,69</t>
+          <t>-26,44; 59,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>39,22; 164,12</t>
+          <t>40,43; 157,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 14,13</t>
+          <t>7,02; 14,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,83; 17,37</t>
+          <t>8,47; 17,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,21; 20,52</t>
+          <t>10,21; 20,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,79; 20,8</t>
+          <t>11,07; 21,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 21,9</t>
+          <t>9,83; 22,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 14,76</t>
+          <t>4,35; 15,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,33; 16,52</t>
+          <t>10,25; 16,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,63; 18,18</t>
+          <t>10,94; 18,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,98; 16,9</t>
+          <t>8,94; 16,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>126,7; 633,38</t>
+          <t>116,6; 599,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>153,77; 726,52</t>
+          <t>150,19; 703,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>180,66; 877,34</t>
+          <t>193,15; 831,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>60,65; 179,36</t>
+          <t>64,97; 187,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,5; 186,63</t>
+          <t>57,46; 191,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,08; 126,55</t>
+          <t>24,87; 126,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>94,62; 226,08</t>
+          <t>92,17; 218,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>100,99; 241,23</t>
+          <t>101,62; 245,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>85,74; 216,78</t>
+          <t>82,21; 214,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 9,51</t>
+          <t>-1,26; 10,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 5,77</t>
+          <t>-4,57; 5,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 3,66</t>
+          <t>-5,29; 3,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,42; 22,92</t>
+          <t>8,5; 23,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 9,02</t>
+          <t>-4,5; 9,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 4,69</t>
+          <t>-5,29; 5,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,84; 14,87</t>
+          <t>5,12; 14,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,16</t>
+          <t>-2,89; 5,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,5</t>
+          <t>-3,05; 3,84</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 194,11</t>
+          <t>-19,24; 203,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,48; 110,02</t>
+          <t>-47,44; 112,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 79,88</t>
+          <t>-53,53; 74,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>49,54; 279,23</t>
+          <t>53,42; 292,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 112,15</t>
+          <t>-29,33; 120,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 57,34</t>
+          <t>-33,45; 68,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>40,6; 197,07</t>
+          <t>43,81; 208,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 67,23</t>
+          <t>-25,99; 69,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 49,05</t>
+          <t>-26,55; 55,97</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 9,79</t>
+          <t>-0,3; 9,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,32; 10,8</t>
+          <t>0,52; 11,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 7,37</t>
+          <t>-1,38; 7,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 7,46</t>
+          <t>-6,35; 6,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 11,63</t>
+          <t>-2,15; 11,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 4,92</t>
+          <t>-6,3; 4,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,65</t>
+          <t>-1,58; 6,83</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,62; 9,34</t>
+          <t>0,88; 9,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 4,77</t>
+          <t>-2,91; 4,43</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 161,85</t>
+          <t>-4,82; 148,51</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1,2; 180,11</t>
+          <t>2,53; 182,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 125,68</t>
+          <t>-14,27; 123,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 56,22</t>
+          <t>-33,11; 52,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 89,06</t>
+          <t>-11,61; 90,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 39,22</t>
+          <t>-31,91; 35,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 65,24</t>
+          <t>-11,02; 66,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,03; 90,12</t>
+          <t>5,92; 98,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 47,26</t>
+          <t>-19,21; 42,77</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,25</t>
+          <t>-5,05; 1,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 2,69</t>
+          <t>-3,9; 2,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,24; 7,14</t>
+          <t>0,05; 7,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 5,67</t>
+          <t>-2,11; 5,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,47; 9,76</t>
+          <t>1,85; 9,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 10,08</t>
+          <t>-2,2; 9,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,47</t>
+          <t>-2,67; 2,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 5,06</t>
+          <t>-0,04; 5,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 7,65</t>
+          <t>0,47; 7,61</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-46,91; 17,09</t>
+          <t>-47,61; 13,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 32,69</t>
+          <t>-36,62; 28,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2,05; 94,3</t>
+          <t>-0,04; 91,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 49,51</t>
+          <t>-13,4; 49,58</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>8,03; 84,96</t>
+          <t>11,76; 85,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 85,37</t>
+          <t>-13,36; 82,05</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 24,07</t>
+          <t>-21,28; 24,95</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 48,84</t>
+          <t>-1,01; 49,51</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>5,69; 73,42</t>
+          <t>6,67; 73,9</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 3,43</t>
+          <t>-2,84; 3,7</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -1,34</t>
+          <t>-6,86; -1,25</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,86</t>
+          <t>-2,47; 3,91</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,42</t>
+          <t>-3,07; 4,87</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 0,44</t>
+          <t>-7,29; -0,13</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,03; 7,53</t>
+          <t>0,11; 7,96</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,02</t>
+          <t>-1,83; 2,78</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-6,12; -1,51</t>
+          <t>-6,41; -1,61</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,64</t>
+          <t>-0,66; 4,72</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 38,19</t>
+          <t>-24,62; 44,17</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-59,2; -15,32</t>
+          <t>-58,49; -12,79</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 44,51</t>
+          <t>-21,8; 45,53</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 31,65</t>
+          <t>-16,83; 34,25</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 3,33</t>
+          <t>-39,7; -0,67</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 50,76</t>
+          <t>0,51; 56,06</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 24,33</t>
+          <t>-12,21; 23,68</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-42,53; -12,21</t>
+          <t>-42,92; -12,88</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 38,53</t>
+          <t>-4,08; 38,47</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,28</t>
+          <t>1,34; 4,35</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,47</t>
+          <t>-0,46; 2,39</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,22</t>
+          <t>3,15; 6,23</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,15</t>
+          <t>3,59; 7,28</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,87</t>
+          <t>1,27; 4,87</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,42</t>
+          <t>2,55; 6,42</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,47</t>
+          <t>2,9; 5,37</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,36</t>
+          <t>1,02; 3,34</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,04</t>
+          <t>3,52; 6,1</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,68; 57,27</t>
+          <t>14,25; 55,93</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 32,23</t>
+          <t>-5,75; 31,06</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>35,94; 82,1</t>
+          <t>35,43; 81,86</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>22,05; 51,46</t>
+          <t>22,39; 53,08</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>7,85; 35,0</t>
+          <t>8,12; 35,39</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>17,49; 46,96</t>
+          <t>16,68; 46,5</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>25,82; 50,9</t>
+          <t>23,61; 48,56</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>8,56; 31,12</t>
+          <t>8,38; 30,72</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>29,07; 55,13</t>
+          <t>29,71; 56,42</t>
         </is>
       </c>
     </row>
